--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Legacy\Documents\UiPath\ClaimBack_Maintainace_V1\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dperera\Documents\Uipath\ClaimBack_BGPortal\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F3FDAB-0406-411C-8684-5E5D4B1083D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3A5C49-033B-414A-9EFE-A9DACD52B666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -183,13 +183,13 @@
     <t>Ramesh.Yanith@travisperkins.co.uk</t>
   </si>
   <si>
-    <t>Ramesh1234!@#$</t>
-  </si>
-  <si>
     <t>https://bgcontractorsupport.co.uk/Account/Login</t>
   </si>
   <si>
     <t>BG_URL</t>
+  </si>
+  <si>
+    <t>Ramesh1234!@#$1</t>
   </si>
 </sst>
 </file>
@@ -241,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -251,6 +251,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,15 +569,15 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -624,7 +625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -634,7 +635,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
+    <row r="5" spans="1:26" ht="29">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -667,7 +668,7 @@
       <c r="A10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -675,16 +676,16 @@
       <c r="A11" t="s">
         <v>50</v>
       </c>
-      <c r="B11" t="s">
-        <v>52</v>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1688,12 +1689,12 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1730,7 +1731,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1855,7 +1856,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="45">
+    <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2851,12 +2852,12 @@
       <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
